--- a/LLM-eval/file/suite/single_function_big_body.xlsx
+++ b/LLM-eval/file/suite/single_function_big_body.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\i-eval\LLM-eval\file\suite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\i-eval\i-eval.git\LLM-eval\file\suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7196AE51-151F-4017-AD70-7A22FE946CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C29AB7-FE9D-4F47-81DB-8E60A20A871B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t>序号</t>
   </si>
@@ -226,12 +226,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{"completionTokens":"100","fcCount":1}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>·</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>{"fcCount":1}</t>
   </si>
 </sst>
 </file>
@@ -305,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,9 +309,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -599,13 +591,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="76.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="76.75" style="4" customWidth="1"/>
     <col min="3" max="3" width="23.625" customWidth="1"/>
     <col min="4" max="4" width="75.625" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
@@ -660,11 +652,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -672,10 +664,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -683,10 +675,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -694,10 +686,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -705,10 +697,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -716,24 +708,21 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>63</v>
+      <c r="D7" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -741,10 +730,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -752,10 +741,10 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -763,10 +752,10 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -774,10 +763,10 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -785,10 +774,10 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -796,10 +785,10 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -807,10 +796,10 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -818,10 +807,10 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -829,10 +818,10 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -840,10 +829,10 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -851,10 +840,10 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -862,10 +851,10 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -873,10 +862,10 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -884,10 +873,10 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -895,10 +884,10 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -906,10 +895,10 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -917,10 +906,10 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -928,10 +917,10 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -939,10 +928,10 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -950,10 +939,10 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -961,10 +950,10 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -972,10 +961,10 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -983,10 +972,10 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -994,10 +983,10 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1005,10 +994,10 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1016,10 +1005,10 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1027,10 +1016,10 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1038,10 +1027,10 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1049,10 +1038,10 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1060,10 +1049,10 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1071,10 +1060,10 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1082,10 +1071,10 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1093,10 +1082,10 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1104,10 +1093,10 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1115,10 +1104,10 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1126,10 +1115,10 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1137,10 +1126,10 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1148,10 +1137,10 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1159,10 +1148,10 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1170,10 +1159,10 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1181,10 +1170,10 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1192,10 +1181,10 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1203,10 +1192,10 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>62</v>
       </c>
     </row>
